--- a/ykodama/ddbj_packages/excel/MIGS.vi.host-associated.4.0.xlsx
+++ b/ykodama/ddbj_packages/excel/MIGS.vi.host-associated.4.0.xlsx
@@ -28,7 +28,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Unique name for each sample (used as an ID)</t>
+          <t>The sample name is a name that you choose for the sample, it works as an ID.  Each sample name must be unique in samples submitted from a submission account.</t>
         </r>
       </text>
     </comment>
@@ -41,7 +41,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Unique title for each sample</t>
+          <t>Sample title should be short and informative. Each sample title must be unique in a submission.  Examples: 1) Escherichia coli O104:H4 str. C227-11 clinical isolate 2010_333_NC-6;  2) CD8+ T cells from female TSG6-knockout BALB/c mouse;  3) Human metagenome isolated from urine of healthy female.</t>
         </r>
       </text>
     </comment>
@@ -54,7 +54,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Brief description</t>
+          <t>A brief description for the sample.</t>
         </r>
       </text>
     </comment>
@@ -67,7 +67,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Organism name in the NCBI Taxonomy database</t>
+          <t>The most descriptive organism name for this sample (to the species, if relevant) in the NCBI Taxonomy database, http://www.ncbi.nlm.nih.gov/taxonomy If it is not in the database, provide as much information about the organism as possible and the DDBJ staff apply a new organism name to NCBI Taxonomy.</t>
         </r>
       </text>
     </comment>
@@ -80,7 +80,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>NCBI Taxonomy identifier</t>
+          <t>NCBI Taxonomy identifier. This is appropriate for individual organisms, some metagenomes and environmental samples (http://www.ncbi.nlm.nih.gov/Taxonomy/Browser/wwwtax.cgi?mode=Undef&amp;id=12908&amp;lvl=3&amp;lin=f&amp;keep=1&amp;srchmode=1&amp;unlock).  If it is not in the database, enter a tentative ID (e.g., 1). The DDBJ staff apply a new organism name to NCBI Taxonomy, and then the tentative ID is replaced by an assigned TaxID.</t>
         </r>
       </text>
     </comment>
@@ -121,7 +121,7 @@
             <family val="2"/>
           </rPr>
           <t>Organism group
-Identification of the specific individual</t>
+Identification or description of the specific individual from which this sample was obtained</t>
         </r>
       </text>
     </comment>
@@ -134,7 +134,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Time of sampling (eg, 2008-01-23, 2008-01)</t>
+          <t>Time of sampling (single instance or interval, eg., 2008-01-23T19:23:10, 2008-01-23, 2008-01, 2008, 1952-10-21T11:43Z/1952-10-21T17:43Z, 1952-10-21/1953-02-15, 1952-10/1953-02, 1952/1953)</t>
         </r>
       </text>
     </comment>
@@ -147,7 +147,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Descriptor of the broad ecological context of a sample</t>
+          <t>Descriptor of the broad ecological context of a sample. Examples include: desert, taiga or deciduous woodland. FAQ, http://trace.ddbj.nig.ac.jp/biosample/faq_e.html#biome-feature-material EnvO (v 2013-06-14) terms can be found via the link: http://www.environmentontology.org/Browse-EnvO</t>
         </r>
       </text>
     </comment>
@@ -160,7 +160,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Descriptor of the local environment.</t>
+          <t>Descriptor of the local environment. Examples include: harbor, cliff, or lake. FAQ, http://trace.ddbj.nig.ac.jp/biosample/faq_e.html#biome-feature-material EnvO (v 2013-06-14) terms can be found via the link: http://www.environmentontology.org/Browse-EnvO</t>
         </r>
       </text>
     </comment>
@@ -173,7 +173,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Material that was displaced by the sample, or material in which a sample was embedded, prior to the sampling event.</t>
+          <t>Material that was displaced by the sample, or material in which a sample was embedded, prior to the sampling event. Examples include: air, soil, or water. FAQ, http://trace.ddbj.nig.ac.jp/biosample/faq_e.html#biome-feature-material EnvO (v 2013-06-14) terms can be found via the link: http://www.environmentontology.org/Browse-EnvO</t>
         </r>
       </text>
     </comment>
@@ -186,7 +186,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Geographical origin of the sample (eg, "Japan:Kanagawa, Hakone, Lake Ashi")</t>
+          <t xml:space="preserve">Geographical origin of the sample; use the appropriate name from the list, http://www.ddbj.nig.ac.jp/sub/country-e.html. Use a colon to separate the country or ocean from more detailed information about the location, eg "Japan:Kanagawa, Hakone, Lake Ashi" </t>
         </r>
       </text>
     </comment>
@@ -199,7 +199,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>The natural (as opposed to laboratory) host to the organism from which the sample was obtained</t>
+          <t>The natural (as opposed to laboratory) host to the organism from which the sample was obtained. Use the full taxonomic name, eg, "Homo sapiens".</t>
         </r>
       </text>
     </comment>
@@ -212,7 +212,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Pubmed ID, DOI or URL of publication for isolation and growth condition specifications of the organism/material</t>
+          <t>Publication reference in the form of pubmed ID, DOI or URL for isolation and growth condition specifications of the organism/material</t>
         </r>
       </text>
     </comment>
@@ -225,7 +225,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>The geographical coordinates of the location in decimal degrees latitude and longitude (eg, 47.94 N 28.12 W)</t>
+          <t>The geographical coordinates of the location where the sample was collected. Specify as decimal degrees latitude and longitude in format "d[d.dddd] N|S d[dd.dddd] W|E", eg, 47.94 N 28.12 W</t>
         </r>
       </text>
     </comment>
@@ -238,7 +238,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>phage: lytic/lysogenic/temperate/obligately lytic;  plasmid: incompatibility group;  eukaryote: asexual/sexual</t>
+          <t>This field is specific to different taxa. For phage: lytic/lysogenic/temperate/obligately lytic;  for plasmid: incompatibility group;  for eukaryote: asexual/sexual</t>
         </r>
       </text>
     </comment>
@@ -264,7 +264,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Free-living or from host</t>
+          <t>Free-living or from host (define relationship)</t>
         </r>
       </text>
     </comment>
@@ -277,7 +277,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>list of chemical compounds administered to the host or site where sampling occurred, and when</t>
+          <t>list of chemical compounds administered to the host or site where sampling occurred, and when (e.g. antibiotics, N fertilizer, air filter); can include multiple compounds. For Chemical Entities of Biological Interest ontology (CHEBI) (v1.72), please see http://bioportal.bioontology.org/visualize/44603</t>
         </r>
       </text>
     </comment>
@@ -290,7 +290,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Depth is defined as the vertical distance below local surface. Depth can be reported as an interval for subsurface samples.</t>
+          <t>Depth is defined as the vertical distance below surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. Depth can be reported as an interval for subsurface samples.</t>
         </r>
       </text>
     </comment>
@@ -316,7 +316,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Traits like antibiotic resistance/xenobiotic degration phenotypes</t>
+          <t>Traits like antibiotic resistance/xenobiotic degration phenotypes/converting phage genes</t>
         </r>
       </text>
     </comment>
@@ -355,7 +355,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Information regarding health state of the individual</t>
+          <t>Health or disease status of sample at time of collection</t>
         </r>
       </text>
     </comment>
@@ -368,7 +368,59 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Age of host</t>
+          <t>Age of host at the time of sampling</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AB13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>resting diastolic blood pressureof the host, measured as mm mercury</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AC13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>resting systolic blood pressure of the host, measured as mm mercury</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AD13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>original body habitat where the sample was obtained from</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AE13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>substance produced by the host, e.g. stool, mucus, where the sample was obtained from</t>
         </r>
       </text>
     </comment>
@@ -407,7 +459,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>type of diet depending on the sample for animals omnivore, herbivore etc., for humans high-fat, meditteranean etc.</t>
+          <t>type of diet depending on the sample for animals omnivore, herbivore etc., for humans high-fat, meditteranean etc.; can include multiple diet types</t>
         </r>
       </text>
     </comment>
@@ -420,7 +472,20 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Name of relevant disease</t>
+          <t>Name of relevant disease, e.g. Salmonella gastroenteritis. For the controlled vocabulary, please see Human Disease Ontology, http://bioportal.bioontology.org/ontologies/1009 or MeSH, http://www.ncbi.nlm.nih.gov/mesh</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AJ13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>measurement of dry mass</t>
         </r>
       </text>
     </comment>
@@ -450,6 +515,71 @@
         </r>
       </text>
     </comment>
+    <comment ref="AO13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>taxonomic information subspecies level</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AP13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>taxonomic rank information below subspecies level, such as variety, form, rank etc.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AQ13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>content of last meal and time since feeding; can include multiple values</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AR13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>the length of subject</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AS13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>description of host life stage</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="AU13" authorId="0">
       <text>
         <r>
@@ -489,6 +619,19 @@
         </r>
       </text>
     </comment>
+    <comment ref="AX13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>the growth substrate of the host</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="AY13" authorId="0">
       <text>
         <r>
@@ -498,7 +641,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>NCBI taxonomy ID of the host</t>
+          <t>NCBI taxonomy ID of the host, e.g. 9606</t>
         </r>
       </text>
     </comment>
@@ -511,7 +654,20 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Type of tissue the initial sample was taken from</t>
+          <t>Type of tissue the initial sample was taken from. Controlled vocabulary, http://bioportal.bioontology.org/ontologies/1005</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BA13" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>total mass of the host at collection, the unit depends on host</t>
         </r>
       </text>
     </comment>
@@ -524,7 +680,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>Describes the physical, environmental and/or local geographical source of the biological sample</t>
+          <t>Describes the physical, environmental and/or local geographical source of the biological sample from which the sample was derived.</t>
         </r>
       </text>
     </comment>
@@ -563,7 +719,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>total count of any organism per gram or volume of sample, should include name of organism followed by count</t>
+          <t>total count of any organism per gram or volume of sample, should include name of organism followed by count; can include multiple organism counts</t>
         </r>
       </text>
     </comment>
@@ -602,7 +758,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>type of perturbation, e.g. chemical administration, physical disturbance, etc., coupled with time that perturbation occurred</t>
+          <t>type of perturbation, e.g. chemical administration, physical disturbance, etc., coupled with time that perturbation occurred; can include multiple perturbation types</t>
         </r>
       </text>
     </comment>
@@ -732,7 +888,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>unique identifier assigned to a material sample used</t>
+          <t>unique identifier assigned to a material sample used for extracting nucleic acids, and subsequent sequencing. The identifier can refer either to the original material collected or to any derived sub-samples.</t>
         </r>
       </text>
     </comment>
@@ -758,7 +914,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>temperature of the sample</t>
+          <t>temperature of the sample at time of sampling</t>
         </r>
       </text>
     </comment>

--- a/ykodama/ddbj_packages/excel/MIGS.vi.host-associated.4.0.xlsx
+++ b/ykodama/ddbj_packages/excel/MIGS.vi.host-associated.4.0.xlsx
@@ -360,6 +360,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="@"/>
+  </numFmts>
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -444,7 +447,7 @@
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">

--- a/ykodama/ddbj_packages/excel/MIGS.vi.host-associated.4.0.xlsx
+++ b/ykodama/ddbj_packages/excel/MIGS.vi.host-associated.4.0.xlsx
@@ -242,12 +242,688 @@
         </r>
       </text>
     </comment>
+    <comment ref="R15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>The altitude of the sample is the vertical distance between Earth's surface above Sea Level and the sampled position in the air.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Free-living or from host (define relationship)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>list of chemical compounds administered to the host or site where sampling occurred, and when (e.g. antibiotics, N fertilizer, air filter); can include multiple compounds. For Chemical Entities of Biological Interest ontology (CHEBI) (v1.72), please see http://bioportal.bioontology.org/visualize/44603</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Depth is defined as the vertical distance below surface, e.g. for sediment or soil samples depth is measured from sediment or soil surface, respectively. Depth can be reported as an interval for subsurface samples.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>The elevation of the sampling site as measured by the vertical distance from mean sea level.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="W15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Traits like antibiotic resistance/xenobiotic degration phenotypes/converting phage genes</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="X15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Estimated size of genome</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Y15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>whether or not subject is gravid, and if yes date due or date post-conception, specifying which is used</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Z15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Health or disease status of sample at time of collection</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AA15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Age of host at the time of sampling</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AB15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>resting diastolic blood pressureof the host, measured as mm mercury</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AC15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>resting systolic blood pressure of the host, measured as mm mercury</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AD15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>original body habitat where the sample was obtained from</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AE15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>substance produced by the host, e.g. stool, mucus, where the sample was obtained from</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AF15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>core body temperature of the host when sample was collected</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AG15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>the color of host</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AH15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>type of diet depending on the sample for animals omnivore, herbivore etc., for humans high-fat, meditteranean etc.; can include multiple diet types</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AI15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Name of relevant disease, e.g. Salmonella gastroenteritis. For the controlled vocabulary, please see Human Disease Ontology, http://bioportal.bioontology.org/ontologies/1009 or MeSH, http://www.ncbi.nlm.nih.gov/mesh</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AJ15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>measurement of dry mass</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AM15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>literature reference giving growth conditions of the host</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AN15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>the height of subject</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AO15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>taxonomic information subspecies level</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AP15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>taxonomic rank information below subspecies level, such as variety, form, rank etc.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AQ15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>content of last meal and time since feeding; can include multiple values</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AR15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>the length of subject</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AS15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>description of host life stage</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AU15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Gender or physical sex of the host</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AV15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>morphological shape of host</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AW15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>a unique identifier by which each subject can be referred to, de-identified, e.g. #131</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AX15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>the growth substrate of the host</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AY15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>NCBI taxonomy ID of the host, e.g. 9606</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AZ15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Type of tissue the initial sample was taken from. Controlled vocabulary, http://bioportal.bioontology.org/ontologies/1005</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BA15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>total mass of the host at collection, the unit depends on host</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BB15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Describes the physical, environmental and/or local geographical source of the biological sample from which the sample was derived.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BC15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>any other measurement performed or parameter collected, that is not listed here</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BD15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Reports the number of replicons in a nuclear genome of eukaryotes, in the genome of a bacterium or archaea or the number of segments in a segmented virus. Always applied to the haploid chromosome count of a eukaryote</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BE15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>total count of any organism per gram or volume of sample, should include name of organism followed by count; can include multiple organism counts</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BF15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>oxygenation status of sample</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BG15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>To what is the entity pathogenic</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BH15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>type of perturbation, e.g. chemical administration, physical disturbance, etc., coupled with time that perturbation occurred; can include multiple perturbation types</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BI15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Primary publication or genome report in the form of pubmed ID, DOI or URL</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BJ15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Method or device employed for collecting sample</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BK15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Processing applied to the sample during or after isolation</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BL15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>salinity of sample, i.e. measure of total salt concentration</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BM15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Amount or size of sample (volume, mass or area) that was collected</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BN15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>duration for which sample was stored</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BO15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>location at which sample was stored, usually name of a specific freezer/room</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BP15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>temperature at which sample was stored, e.g. -80</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BQ15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>volume (mL) or weight (g) of sample processed for DNA extraction</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BR15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>unique identifier assigned to a material sample used for extracting nucleic acids, and subsequent sequencing. The identifier can refer either to the original material collected or to any derived sub-samples.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BS15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Information about the genetic distinctness of the lineage (eg., biovar, serovar)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BT15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>temperature of the sample at time of sampling</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
   <si>
     <t xml:space="preserve"># This is a submission template for batch deposit of 'MIGS: virus, host-associated; version 4.0' samples to the DDBJ BioSample database (http://trace.ddbj.nig.ac.jp/biosample)._x000D_
 </t>
@@ -354,6 +1030,171 @@
   </si>
   <si>
     <t>propagation</t>
+  </si>
+  <si>
+    <t>altitude</t>
+  </si>
+  <si>
+    <t>biotic_relationship</t>
+  </si>
+  <si>
+    <t>chem_administration</t>
+  </si>
+  <si>
+    <t>depth</t>
+  </si>
+  <si>
+    <t>elev</t>
+  </si>
+  <si>
+    <t>encoded_traits</t>
+  </si>
+  <si>
+    <t>estimated_size</t>
+  </si>
+  <si>
+    <t>gravidity</t>
+  </si>
+  <si>
+    <t>health_state</t>
+  </si>
+  <si>
+    <t>host_age</t>
+  </si>
+  <si>
+    <t>host_blood_press_diast</t>
+  </si>
+  <si>
+    <t>host_blood_press_syst</t>
+  </si>
+  <si>
+    <t>host_body_habitat</t>
+  </si>
+  <si>
+    <t>host_body_product</t>
+  </si>
+  <si>
+    <t>host_body_temp</t>
+  </si>
+  <si>
+    <t>host_color</t>
+  </si>
+  <si>
+    <t>host_diet</t>
+  </si>
+  <si>
+    <t>host_disease</t>
+  </si>
+  <si>
+    <t>host_dry_mass</t>
+  </si>
+  <si>
+    <t>host_family_relationship</t>
+  </si>
+  <si>
+    <t>host_genotype</t>
+  </si>
+  <si>
+    <t>host_growth_cond</t>
+  </si>
+  <si>
+    <t>host_height</t>
+  </si>
+  <si>
+    <t>host_infra_specific_name</t>
+  </si>
+  <si>
+    <t>host_infra_specific_rank</t>
+  </si>
+  <si>
+    <t>host_last_meal</t>
+  </si>
+  <si>
+    <t>host_length</t>
+  </si>
+  <si>
+    <t>host_life_stage</t>
+  </si>
+  <si>
+    <t>host_phenotype</t>
+  </si>
+  <si>
+    <t>host_sex</t>
+  </si>
+  <si>
+    <t>host_shape</t>
+  </si>
+  <si>
+    <t>host_subject_id</t>
+  </si>
+  <si>
+    <t>host_substrate</t>
+  </si>
+  <si>
+    <t>host_taxid</t>
+  </si>
+  <si>
+    <t>host_tissue_sampled</t>
+  </si>
+  <si>
+    <t>host_tot_mass</t>
+  </si>
+  <si>
+    <t>isolation_source</t>
+  </si>
+  <si>
+    <t>misc_param</t>
+  </si>
+  <si>
+    <t>num_replicons</t>
+  </si>
+  <si>
+    <t>organism_count</t>
+  </si>
+  <si>
+    <t>oxy_stat_samp</t>
+  </si>
+  <si>
+    <t>pathogenicity</t>
+  </si>
+  <si>
+    <t>perturbation</t>
+  </si>
+  <si>
+    <t>ref_biomaterial</t>
+  </si>
+  <si>
+    <t>samp_collect_device</t>
+  </si>
+  <si>
+    <t>samp_mat_process</t>
+  </si>
+  <si>
+    <t>samp_salinity</t>
+  </si>
+  <si>
+    <t>samp_size</t>
+  </si>
+  <si>
+    <t>samp_store_dur</t>
+  </si>
+  <si>
+    <t>samp_store_loc</t>
+  </si>
+  <si>
+    <t>samp_store_temp</t>
+  </si>
+  <si>
+    <t>samp_vol_we_dna_ext</t>
+  </si>
+  <si>
+    <t>source_material_id</t>
+  </si>
+  <si>
+    <t>subspecf_gen_lin</t>
+  </si>
+  <si>
+    <t>temperature</t>
   </si>
 </sst>
 </file>
@@ -774,77 +1615,77 @@
     <col min="1" max="201" width="20.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:72">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:72">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" s="3" customFormat="1">
+    <row r="3" spans="1:72" s="3" customFormat="1">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:17" s="4" customFormat="1">
+    <row r="4" spans="1:72" s="4" customFormat="1">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:17" s="5" customFormat="1">
+    <row r="5" spans="1:72" s="5" customFormat="1">
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:72">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:72">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:72">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:72">
       <c r="A9" s="6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:72">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:72">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:72">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:72">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:72">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:72">
       <c r="A15" s="7" t="s">
         <v>14</v>
       </c>
@@ -895,6 +1736,171 @@
       </c>
       <c r="Q15" s="7" t="s">
         <v>30</v>
+      </c>
+      <c r="R15" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="S15" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="T15" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="U15" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="V15" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="W15" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="X15" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y15" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z15" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA15" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB15" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC15" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD15" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="AE15" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF15" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG15" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="AH15" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="AI15" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="AJ15" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK15" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="AL15" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="AM15" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="AN15" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AO15" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="AP15" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="AQ15" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AR15" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS15" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="AT15" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="AU15" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="AV15" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="AW15" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="AX15" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="AY15" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="AZ15" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="BA15" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="BB15" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="BC15" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="BD15" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="BE15" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="BF15" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="BG15" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="BH15" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="BI15" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="BJ15" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="BK15" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="BL15" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="BM15" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="BN15" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="BO15" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="BP15" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="BQ15" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="BR15" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="BS15" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="BT15" s="8" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
